--- a/data/trans_orig/P23_R2-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P23_R2-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>147446</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>128792</v>
+        <v>127980</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>166582</v>
+        <v>168578</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3112137606524016</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2718420524026856</v>
+        <v>0.2701273815869568</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3516044054483288</v>
+        <v>0.355818562759156</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>83</v>
@@ -765,19 +765,19 @@
         <v>86299</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>70403</v>
+        <v>71223</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>101788</v>
+        <v>101611</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2813983388598454</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2295655970114916</v>
+        <v>0.2322383373736061</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3319037414868262</v>
+        <v>0.331325732011596</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>228</v>
@@ -786,19 +786,19 @@
         <v>233745</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>206750</v>
+        <v>206597</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>257408</v>
+        <v>258374</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2994977953901647</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2649084247143119</v>
+        <v>0.2647125288218707</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.329816488723942</v>
+        <v>0.3310548337506472</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>326330</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>307194</v>
+        <v>305198</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>344984</v>
+        <v>345796</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6887862393475984</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6483955945516711</v>
+        <v>0.6441814372408443</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7281579475973143</v>
+        <v>0.7298726184130438</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>215</v>
@@ -836,19 +836,19 @@
         <v>220381</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>204892</v>
+        <v>205069</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>236277</v>
+        <v>235457</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7186016611401546</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6680962585131739</v>
+        <v>0.668674267988404</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7704344029885085</v>
+        <v>0.7677616626263939</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>525</v>
@@ -857,19 +857,19 @@
         <v>546712</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>523049</v>
+        <v>522083</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>573707</v>
+        <v>573860</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7005022046098354</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.670183511276058</v>
+        <v>0.6689451662493529</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7350915752856881</v>
+        <v>0.7352874711781293</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>127310</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>109618</v>
+        <v>108449</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>148059</v>
+        <v>146479</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3469564788143348</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2987390538701969</v>
+        <v>0.2955557416717915</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4035039314996059</v>
+        <v>0.3991973068098609</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>128</v>
@@ -982,19 +982,19 @@
         <v>130067</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>111652</v>
+        <v>110497</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>148180</v>
+        <v>148463</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3497705066326767</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3002485526420885</v>
+        <v>0.2971416689575794</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3984766926516247</v>
+        <v>0.3992396272289117</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>249</v>
@@ -1003,19 +1003,19 @@
         <v>257378</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>229249</v>
+        <v>231314</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>286362</v>
+        <v>285909</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.348372883098347</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3102994956234086</v>
+        <v>0.3130946369623773</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3876050287676811</v>
+        <v>0.3869915991770711</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>239624</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>218875</v>
+        <v>220455</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>257316</v>
+        <v>258485</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6530435211856652</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.596496068500394</v>
+        <v>0.6008026931901391</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7012609461298031</v>
+        <v>0.7044442583282085</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>235</v>
@@ -1053,19 +1053,19 @@
         <v>241798</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>223685</v>
+        <v>223402</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>260213</v>
+        <v>261368</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6502294933673234</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6015233073483753</v>
+        <v>0.6007603727710882</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6997514473579115</v>
+        <v>0.7028583310424206</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>464</v>
@@ -1074,19 +1074,19 @@
         <v>481421</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>452437</v>
+        <v>452890</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>509550</v>
+        <v>507485</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6516271169016531</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6123949712323189</v>
+        <v>0.613008400822929</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6897005043765914</v>
+        <v>0.6869053630376227</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>245728</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>224435</v>
+        <v>222575</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>269339</v>
+        <v>270141</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4530480933477261</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4137901203016167</v>
+        <v>0.4103597448872005</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4965796021106066</v>
+        <v>0.4980584236034491</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>44</v>
@@ -1199,19 +1199,19 @@
         <v>44043</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>33268</v>
+        <v>33004</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>55891</v>
+        <v>56291</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2624986139339552</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1982786687903626</v>
+        <v>0.1967081543571538</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3331175543006428</v>
+        <v>0.3354991247426597</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>285</v>
@@ -1220,19 +1220,19 @@
         <v>289771</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>264684</v>
+        <v>265105</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>317223</v>
+        <v>318709</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4080297033219092</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.372704760379994</v>
+        <v>0.3732980467339927</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4466859023607436</v>
+        <v>0.4487775252601915</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>296661</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>273050</v>
+        <v>272248</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>317954</v>
+        <v>319814</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5469519066522739</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5034203978893933</v>
+        <v>0.5019415763965508</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5862098796983831</v>
+        <v>0.5896402551127994</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>120</v>
@@ -1270,19 +1270,19 @@
         <v>123739</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>111891</v>
+        <v>111491</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>134514</v>
+        <v>134778</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7375013860660449</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6668824456993574</v>
+        <v>0.6645008752573404</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8017213312096374</v>
+        <v>0.8032918456428462</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>411</v>
@@ -1291,19 +1291,19 @@
         <v>420400</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>392948</v>
+        <v>391462</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>445487</v>
+        <v>445066</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5919702966780908</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5533140976392563</v>
+        <v>0.5512224747398083</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.627295239620006</v>
+        <v>0.6267019532660073</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>530559</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>498855</v>
+        <v>495347</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>565500</v>
+        <v>565343</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4284456574259908</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4028439782114848</v>
+        <v>0.4000110610617715</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4566622289867014</v>
+        <v>0.4565351348860415</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>222</v>
@@ -1416,19 +1416,19 @@
         <v>228232</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>205246</v>
+        <v>201906</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>254520</v>
+        <v>250682</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3195253877418959</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2873439899205415</v>
+        <v>0.2826693685329208</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3563288136956992</v>
+        <v>0.350955169490887</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>740</v>
@@ -1437,19 +1437,19 @@
         <v>758791</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>713931</v>
+        <v>715915</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>801596</v>
+        <v>804276</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3886016726627417</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3656271299415532</v>
+        <v>0.3666431389202884</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4105233878276163</v>
+        <v>0.4118957662101492</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>707775</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>672834</v>
+        <v>672991</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>739479</v>
+        <v>742987</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5715543425740093</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5433377710132985</v>
+        <v>0.5434648651139584</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5971560217885151</v>
+        <v>0.5999889389382286</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>472</v>
@@ -1487,19 +1487,19 @@
         <v>486053</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>459765</v>
+        <v>463603</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>509039</v>
+        <v>512379</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6804746122581041</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.643671186304301</v>
+        <v>0.649044830509113</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7126560100794587</v>
+        <v>0.7173306314670792</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1178</v>
@@ -1508,19 +1508,19 @@
         <v>1193829</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1151024</v>
+        <v>1148344</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1238689</v>
+        <v>1236705</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6113983273372583</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5894766121723837</v>
+        <v>0.5881042337898507</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6343728700584468</v>
+        <v>0.6333568610797117</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>170055</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>151401</v>
+        <v>152616</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>188286</v>
+        <v>188950</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4851020932500151</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4318898667888047</v>
+        <v>0.4353565225844228</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5371072779386329</v>
+        <v>0.5390019055189157</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>167</v>
@@ -1633,19 +1633,19 @@
         <v>173900</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>151339</v>
+        <v>154238</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>198407</v>
+        <v>197578</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3057570616141122</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2660896152749312</v>
+        <v>0.2711864117506961</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3488471111953116</v>
+        <v>0.3473884966965946</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>330</v>
@@ -1654,19 +1654,19 @@
         <v>343955</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>313098</v>
+        <v>313245</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>375308</v>
+        <v>375064</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3741459005663508</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3405805085737753</v>
+        <v>0.340740193709384</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4082511113323793</v>
+        <v>0.4079859156373301</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>180500</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>162269</v>
+        <v>161605</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>199154</v>
+        <v>197939</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5148979067499848</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4628927220613674</v>
+        <v>0.4609980944810844</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5681101332111953</v>
+        <v>0.5646434774155772</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>372</v>
@@ -1704,19 +1704,19 @@
         <v>394852</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>370345</v>
+        <v>371174</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>417413</v>
+        <v>414514</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6942429383858878</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6511528888046885</v>
+        <v>0.6526115033034052</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7339103847250689</v>
+        <v>0.7288135882493039</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>549</v>
@@ -1725,19 +1725,19 @@
         <v>575352</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>543999</v>
+        <v>544243</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>606209</v>
+        <v>606062</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6258540994336492</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5917488886676207</v>
+        <v>0.5920140843626698</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6594194914262248</v>
+        <v>0.6592598062906161</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>80691</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>65583</v>
+        <v>66831</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>95381</v>
+        <v>97002</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2715429511328292</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2207016689093446</v>
+        <v>0.2249002751470981</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3209770249039196</v>
+        <v>0.3264327063747718</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>169</v>
@@ -1850,19 +1850,19 @@
         <v>166189</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>145139</v>
+        <v>143873</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>190915</v>
+        <v>189522</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1330831020648946</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1162265144610451</v>
+        <v>0.1152126414191843</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1528835020977909</v>
+        <v>0.1517679898993698</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>250</v>
@@ -1871,19 +1871,19 @@
         <v>246880</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>220069</v>
+        <v>220578</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>276035</v>
+        <v>276382</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1596980236338488</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1423549950903426</v>
+        <v>0.1426842062174516</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1785575883008748</v>
+        <v>0.1787815334399626</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>216467</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>201777</v>
+        <v>200156</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>231575</v>
+        <v>230327</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7284570488671709</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6790229750960803</v>
+        <v>0.6735672936252279</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7792983310906554</v>
+        <v>0.7750997248529017</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1069</v>
@@ -1921,19 +1921,19 @@
         <v>1082571</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1057845</v>
+        <v>1059238</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1103621</v>
+        <v>1104887</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8669168979351054</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8471164979022096</v>
+        <v>0.8482320101006302</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8837734855389554</v>
+        <v>0.8847873585808158</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1293</v>
@@ -1942,19 +1942,19 @@
         <v>1299038</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1269883</v>
+        <v>1269536</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1325849</v>
+        <v>1325340</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8403019763661512</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8214424116991251</v>
+        <v>0.8212184665600374</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8576450049096573</v>
+        <v>0.8573157937825482</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>1301790</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1240353</v>
+        <v>1250353</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1359835</v>
+        <v>1360883</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3982045973295225</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3794115983728995</v>
+        <v>0.3824706904294165</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4159599847120554</v>
+        <v>0.4162805876381405</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>813</v>
@@ -2067,19 +2067,19 @@
         <v>828730</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>782294</v>
+        <v>780668</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>881119</v>
+        <v>879986</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.245322614791856</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2315764834907826</v>
+        <v>0.2310950157412831</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2608308542043143</v>
+        <v>0.260495424807465</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2082</v>
@@ -2088,19 +2088,19 @@
         <v>2130520</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2055108</v>
+        <v>2050577</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2211061</v>
+        <v>2211912</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3205104217513217</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3091656550019837</v>
+        <v>0.3084839250354554</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3326268880888844</v>
+        <v>0.3327547903065431</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>1967358</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1909313</v>
+        <v>1908265</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2028795</v>
+        <v>2018795</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6017954026704776</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5840400152879447</v>
+        <v>0.5837194123618593</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6205884016271004</v>
+        <v>0.6175293095705835</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2483</v>
@@ -2138,19 +2138,19 @@
         <v>2549394</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2497005</v>
+        <v>2498138</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2595830</v>
+        <v>2597456</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.754677385208144</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7391691457956856</v>
+        <v>0.739504575192535</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7684235165092173</v>
+        <v>0.7689049842587169</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4420</v>
@@ -2159,19 +2159,19 @@
         <v>4516752</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4436211</v>
+        <v>4435360</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>4592164</v>
+        <v>4596695</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6794895782486784</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6673731119111159</v>
+        <v>0.6672452096934572</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6908343449980164</v>
+        <v>0.6915160749645447</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>141909</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>123201</v>
+        <v>122968</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>164695</v>
+        <v>164796</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3245785772964881</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2817886228620341</v>
+        <v>0.2812558855906918</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3766946964994441</v>
+        <v>0.3769249699079022</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>86</v>
@@ -2526,19 +2526,19 @@
         <v>95104</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>78755</v>
+        <v>78511</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>112520</v>
+        <v>111708</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3024426232603276</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2504495610771739</v>
+        <v>0.249672551332991</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3578269659087254</v>
+        <v>0.3552436174838862</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>220</v>
@@ -2547,19 +2547,19 @@
         <v>237014</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>208821</v>
+        <v>210982</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>263226</v>
+        <v>265895</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3153181426528499</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2778114373989828</v>
+        <v>0.2806861577266557</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3501905036968635</v>
+        <v>0.3537419587071882</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>295302</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>272516</v>
+        <v>272415</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>314010</v>
+        <v>314243</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6754214227035119</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6233053035005555</v>
+        <v>0.6230750300920975</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7182113771379659</v>
+        <v>0.7187441144093079</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>197</v>
@@ -2597,19 +2597,19 @@
         <v>219350</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>201934</v>
+        <v>202746</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>235699</v>
+        <v>235943</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6975573767396723</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6421730340912746</v>
+        <v>0.6447563825161139</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7495504389228262</v>
+        <v>0.7503274486670092</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>467</v>
@@ -2618,19 +2618,19 @@
         <v>514651</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>488439</v>
+        <v>485770</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>542844</v>
+        <v>540683</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6846818573471501</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6498094963031364</v>
+        <v>0.6462580412928118</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7221885626010172</v>
+        <v>0.7193138422733442</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>144703</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>124262</v>
+        <v>123890</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>164570</v>
+        <v>167089</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3455210751821159</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2967112613612251</v>
+        <v>0.2958242333001129</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3929579395618887</v>
+        <v>0.3989733056542431</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>108</v>
@@ -2743,19 +2743,19 @@
         <v>123750</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>106774</v>
+        <v>105026</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>143492</v>
+        <v>144136</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3661113559283028</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3158896234660952</v>
+        <v>0.310718945725376</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4245180163717697</v>
+        <v>0.4264243874288339</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>238</v>
@@ -2764,19 +2764,19 @@
         <v>268453</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>241245</v>
+        <v>235449</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>295266</v>
+        <v>296218</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3547172555825576</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3187670426483826</v>
+        <v>0.3111076016464469</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3901459008356403</v>
+        <v>0.3914049033792696</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>274094</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>254227</v>
+        <v>251708</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>294535</v>
+        <v>294907</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6544789248178841</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6070420604381114</v>
+        <v>0.6010266943457572</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7032887386387751</v>
+        <v>0.7041757666998871</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>197</v>
@@ -2814,19 +2814,19 @@
         <v>214261</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>194519</v>
+        <v>193875</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>231237</v>
+        <v>232985</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6338886440716972</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5754819836282302</v>
+        <v>0.5735756125711661</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6841103765339047</v>
+        <v>0.689281054274624</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>442</v>
@@ -2835,19 +2835,19 @@
         <v>488355</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>461542</v>
+        <v>460590</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>515563</v>
+        <v>521359</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6452827444174425</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6098540991643597</v>
+        <v>0.6085950966207304</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6812329573516174</v>
+        <v>0.6888923983535533</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>252825</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>229590</v>
+        <v>227656</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>277604</v>
+        <v>280297</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4016818988343226</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3647669060822081</v>
+        <v>0.3616953363284271</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4410506065289414</v>
+        <v>0.4453286199645507</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>79</v>
@@ -2960,19 +2960,19 @@
         <v>83373</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>67727</v>
+        <v>69718</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>98887</v>
+        <v>99351</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3205051832253876</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2603610247381979</v>
+        <v>0.2680115284821413</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3801471917813929</v>
+        <v>0.3819280312922689</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>316</v>
@@ -2981,19 +2981,19 @@
         <v>336197</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>308301</v>
+        <v>308454</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>364719</v>
+        <v>370517</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3779433914277245</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3465835218588516</v>
+        <v>0.3467546724972966</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4100063059271294</v>
+        <v>0.4165242427507731</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>376590</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>351811</v>
+        <v>349118</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>399825</v>
+        <v>401759</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5983181011656774</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5589493934710587</v>
+        <v>0.5546713800354494</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6352330939177919</v>
+        <v>0.6383046636715729</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>165</v>
@@ -3031,19 +3031,19 @@
         <v>176756</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>161242</v>
+        <v>160778</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>192402</v>
+        <v>190411</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6794948167746124</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6198528082186071</v>
+        <v>0.6180719687077311</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7396389752618022</v>
+        <v>0.7319884715178586</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>519</v>
@@ -3052,19 +3052,19 @@
         <v>553347</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>524825</v>
+        <v>519027</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>581243</v>
+        <v>581090</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6220566085722755</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5899936940728702</v>
+        <v>0.5834757572492267</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6534164781411482</v>
+        <v>0.6532453275027035</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>467415</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>432087</v>
+        <v>432878</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>500219</v>
+        <v>501216</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4036472740369441</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3731383277067767</v>
+        <v>0.3738218150066146</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.431975776934822</v>
+        <v>0.432836760075409</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>260</v>
@@ -3177,19 +3177,19 @@
         <v>282079</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>252048</v>
+        <v>253275</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>308116</v>
+        <v>311054</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3684120919400078</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3291904852481719</v>
+        <v>0.3307929997875255</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4024182242550474</v>
+        <v>0.4062558741793461</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>696</v>
@@ -3198,19 +3198,19 @@
         <v>749494</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>705817</v>
+        <v>706460</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>797832</v>
+        <v>793128</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3896227144415895</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3669171303896689</v>
+        <v>0.3672516361504248</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.414750795099627</v>
+        <v>0.4123055426349494</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>690565</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>657761</v>
+        <v>656764</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>725893</v>
+        <v>725102</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5963527259630559</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5680242230651781</v>
+        <v>0.5671632399245912</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6268616722932232</v>
+        <v>0.626178184993386</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>450</v>
@@ -3248,19 +3248,19 @@
         <v>483582</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>457545</v>
+        <v>454607</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>513613</v>
+        <v>512386</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6315879080599921</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5975817757449526</v>
+        <v>0.5937441258206539</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6708095147518282</v>
+        <v>0.6692070002124744</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1096</v>
@@ -3269,19 +3269,19 @@
         <v>1174147</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1125809</v>
+        <v>1130513</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1217824</v>
+        <v>1217181</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6103772855584105</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.585249204900373</v>
+        <v>0.5876944573650507</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6330828696103311</v>
+        <v>0.6327483638495752</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>201869</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>178808</v>
+        <v>179473</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>224629</v>
+        <v>224337</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3953593278755944</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.35019453444313</v>
+        <v>0.3514976483760502</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4399345702577596</v>
+        <v>0.4393628756940233</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>196</v>
@@ -3394,19 +3394,19 @@
         <v>214412</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>189572</v>
+        <v>191630</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>240660</v>
+        <v>242551</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2819215890445114</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.249260773794675</v>
+        <v>0.2519672659158952</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3164346828943213</v>
+        <v>0.3189209503851776</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>391</v>
@@ -3415,19 +3415,19 @@
         <v>416280</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>383904</v>
+        <v>382794</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>450189</v>
+        <v>451064</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3274879708696562</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3020175777685829</v>
+        <v>0.3011439496947652</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3541638106850011</v>
+        <v>0.354851885247265</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>308727</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>285967</v>
+        <v>286259</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>331788</v>
+        <v>331123</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6046406721244056</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5600654297422405</v>
+        <v>0.5606371243059768</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6498054655568702</v>
+        <v>0.6485023516239498</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>506</v>
@@ -3465,19 +3465,19 @@
         <v>546124</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>519876</v>
+        <v>517985</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>570964</v>
+        <v>568906</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7180784109554885</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6835653171056788</v>
+        <v>0.6810790496148224</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.750739226205325</v>
+        <v>0.7480327340841046</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>798</v>
@@ -3486,19 +3486,19 @@
         <v>854852</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>820943</v>
+        <v>820068</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>887228</v>
+        <v>888338</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6725120291303438</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6458361893149989</v>
+        <v>0.6451481147527349</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.697982422231417</v>
+        <v>0.6988560503052348</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>51904</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>39426</v>
+        <v>40089</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>66342</v>
+        <v>65601</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1944836421135777</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1477273274719743</v>
+        <v>0.1502137265458497</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2485823180824552</v>
+        <v>0.2458036976122597</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>151</v>
@@ -3611,19 +3611,19 @@
         <v>159165</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>139014</v>
+        <v>134758</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>183342</v>
+        <v>182201</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1434755140003223</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1253108595162691</v>
+        <v>0.12147500259304</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1652700501233235</v>
+        <v>0.164240904633139</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>203</v>
@@ -3632,19 +3632,19 @@
         <v>211069</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>184859</v>
+        <v>184785</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>237807</v>
+        <v>239085</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.153367113521277</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1343223720445532</v>
+        <v>0.1342685634446999</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1727958822762885</v>
+        <v>0.1737242741321758</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>214978</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>200540</v>
+        <v>201281</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>227456</v>
+        <v>226793</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8055163578864223</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7514176819175449</v>
+        <v>0.7541963023877404</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8522726725280257</v>
+        <v>0.8497862734541503</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>893</v>
@@ -3682,19 +3682,19 @@
         <v>950186</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>926009</v>
+        <v>927150</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>970337</v>
+        <v>974593</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8565244859996777</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8347299498766765</v>
+        <v>0.8357590953668611</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8746891404837309</v>
+        <v>0.8785249974069603</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1106</v>
@@ -3703,19 +3703,19 @@
         <v>1165164</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1138426</v>
+        <v>1137148</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1191374</v>
+        <v>1191448</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.846632886478723</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8272041177237115</v>
+        <v>0.8262757258678242</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8656776279554467</v>
+        <v>0.8657314365553</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>1260625</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1208387</v>
+        <v>1202371</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1322874</v>
+        <v>1318943</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.368509073351502</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.353238544837613</v>
+        <v>0.3514799883034735</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3867056514128856</v>
+        <v>0.3855566654567263</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>880</v>
@@ -3828,19 +3828,19 @@
         <v>957882</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>903841</v>
+        <v>905709</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1012009</v>
+        <v>1014768</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2699671160526448</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2547362593073356</v>
+        <v>0.2552627078965414</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2852221935653809</v>
+        <v>0.285999789222984</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2064</v>
@@ -3849,19 +3849,19 @@
         <v>2218508</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2137848</v>
+        <v>2133797</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2300964</v>
+        <v>2295146</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3183383464477351</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3067642864926264</v>
+        <v>0.3061830916695849</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3301702595191374</v>
+        <v>0.3293353336689705</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>2160255</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2098006</v>
+        <v>2101937</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2212493</v>
+        <v>2218509</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6314909266484979</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6132943485871143</v>
+        <v>0.6144433345432736</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6467614551623868</v>
+        <v>0.6485200116965264</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2408</v>
@@ -3899,19 +3899,19 @@
         <v>2590261</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2536134</v>
+        <v>2533375</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2644302</v>
+        <v>2642434</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7300328839473552</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7147778064346193</v>
+        <v>0.7140002107770161</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7452637406926644</v>
+        <v>0.7447372921034586</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4428</v>
@@ -3920,19 +3920,19 @@
         <v>4750516</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4668060</v>
+        <v>4673878</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>4831176</v>
+        <v>4835227</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6816616535522649</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6698297404808626</v>
+        <v>0.6706646663310295</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6932357135073736</v>
+        <v>0.6938169083304151</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>106324</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>86814</v>
+        <v>88282</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>124923</v>
+        <v>126536</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2477876093871199</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2023196670855362</v>
+        <v>0.2057407774315553</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2911332271658344</v>
+        <v>0.2948931286412664</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>66</v>
@@ -4287,19 +4287,19 @@
         <v>66481</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>52948</v>
+        <v>52871</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>83128</v>
+        <v>82285</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1915587278636338</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1525649543137255</v>
+        <v>0.152341563712863</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2395243931878362</v>
+        <v>0.2370940660560968</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>163</v>
@@ -4308,19 +4308,19 @@
         <v>172805</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>150803</v>
+        <v>149814</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>195521</v>
+        <v>197279</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2226448061435839</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1942964233014891</v>
+        <v>0.193022599587443</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2519117812076384</v>
+        <v>0.2541775766298953</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>322768</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>304169</v>
+        <v>302556</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>342278</v>
+        <v>340810</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7522123906128801</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7088667728341655</v>
+        <v>0.7051068713587336</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7976803329144638</v>
+        <v>0.7942592225684445</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>266</v>
@@ -4358,19 +4358,19 @@
         <v>280574</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>263927</v>
+        <v>264770</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>294107</v>
+        <v>294184</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8084412721363662</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7604756068121644</v>
+        <v>0.7629059339439032</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8474350456862748</v>
+        <v>0.8476584362871374</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>565</v>
@@ -4379,19 +4379,19 @@
         <v>603342</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>580626</v>
+        <v>578868</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>625344</v>
+        <v>626333</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7773551938564162</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7480882187923614</v>
+        <v>0.7458224233701046</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8057035766985108</v>
+        <v>0.8069774004125565</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>104594</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>87887</v>
+        <v>86896</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>123275</v>
+        <v>123300</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2780600753063495</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2336464045904408</v>
+        <v>0.2310122904454432</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3277238422129145</v>
+        <v>0.3277905965797336</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>96</v>
@@ -4504,19 +4504,19 @@
         <v>100057</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>83100</v>
+        <v>84368</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>119002</v>
+        <v>118055</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2695157552551089</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2238414024860295</v>
+        <v>0.2272557174456074</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.320548864096951</v>
+        <v>0.3179970115516705</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>192</v>
@@ -4525,19 +4525,19 @@
         <v>204650</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>180127</v>
+        <v>178057</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>230109</v>
+        <v>229671</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2738159768955062</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.241004854100438</v>
+        <v>0.2382344196017784</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3078783384409305</v>
+        <v>0.3072934742721494</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>271561</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>252880</v>
+        <v>252855</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>288268</v>
+        <v>289259</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7219399246936504</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6722761577870855</v>
+        <v>0.6722094034202665</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7663535954095594</v>
+        <v>0.7689877095545568</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>255</v>
@@ -4575,19 +4575,19 @@
         <v>271189</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>252244</v>
+        <v>253191</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>288146</v>
+        <v>286878</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.730484244744891</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6794511359030492</v>
+        <v>0.6820029884483294</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7761585975139706</v>
+        <v>0.7727442825543926</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>512</v>
@@ -4596,19 +4596,19 @@
         <v>542751</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>517292</v>
+        <v>517730</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>567274</v>
+        <v>569344</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7261840231044938</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6921216615590694</v>
+        <v>0.6927065257278505</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.758995145899562</v>
+        <v>0.7617655803982216</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>216738</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>195509</v>
+        <v>194680</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>241080</v>
+        <v>238298</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4152749949392132</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3745991113517295</v>
+        <v>0.3730107120341308</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4619156526077492</v>
+        <v>0.4565838907845644</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>50</v>
@@ -4721,19 +4721,19 @@
         <v>52503</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>40797</v>
+        <v>40510</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>64868</v>
+        <v>65491</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3160504541895794</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2455828523731535</v>
+        <v>0.243852956685835</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.390481387650606</v>
+        <v>0.3942303382033486</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>250</v>
@@ -4742,19 +4742,19 @@
         <v>269241</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>242212</v>
+        <v>242985</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>295381</v>
+        <v>294429</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3913177498352012</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3520343185852907</v>
+        <v>0.3531568257736463</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4293106030228583</v>
+        <v>0.4279272979774009</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>305176</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>280834</v>
+        <v>283616</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>326405</v>
+        <v>327234</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5847250050607868</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5380843473922506</v>
+        <v>0.5434161092154357</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6254008886482705</v>
+        <v>0.6269892879658694</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>103</v>
@@ -4792,19 +4792,19 @@
         <v>113620</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>101255</v>
+        <v>100632</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>125326</v>
+        <v>125613</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6839495458104206</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.609518612349394</v>
+        <v>0.6057696617966514</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7544171476268465</v>
+        <v>0.756147043314165</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>405</v>
@@ -4813,19 +4813,19 @@
         <v>418795</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>392655</v>
+        <v>393607</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>445824</v>
+        <v>445051</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6086822501647988</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5706893969771417</v>
+        <v>0.5720727020225989</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6479656814147093</v>
+        <v>0.6468431742263537</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>430194</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>396689</v>
+        <v>396888</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>465200</v>
+        <v>462576</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.37448073392036</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3453150439636258</v>
+        <v>0.3454882482887031</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4049532857951489</v>
+        <v>0.4026689167679151</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>309</v>
@@ -4938,19 +4938,19 @@
         <v>315813</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>289507</v>
+        <v>289066</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>346614</v>
+        <v>343116</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3828282515085361</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3509398756996372</v>
+        <v>0.3504047773732816</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.420164889285481</v>
+        <v>0.4159246684925921</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>715</v>
@@ -4959,19 +4959,19 @@
         <v>746007</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>706794</v>
+        <v>703519</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>790709</v>
+        <v>790472</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3779697106486035</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.358102034936235</v>
+        <v>0.3564426884463149</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4006179706157495</v>
+        <v>0.4004981958190324</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>718580</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>683574</v>
+        <v>686198</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>752085</v>
+        <v>751886</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.62551926607964</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.595046714204851</v>
+        <v>0.5973310832320848</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6546849560363741</v>
+        <v>0.6545117517112968</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>488</v>
@@ -5009,19 +5009,19 @@
         <v>509135</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>478334</v>
+        <v>481832</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>535441</v>
+        <v>535882</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6171717484914639</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5798351107145191</v>
+        <v>0.584075331507408</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6490601243003628</v>
+        <v>0.6495952226267183</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1184</v>
@@ -5030,19 +5030,19 @@
         <v>1227715</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1183013</v>
+        <v>1183250</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1266928</v>
+        <v>1270203</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6220302893513965</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5993820293842504</v>
+        <v>0.5995018041809677</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.641897965063765</v>
+        <v>0.6435573115536851</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>241223</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>217661</v>
+        <v>216718</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>266358</v>
+        <v>266408</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3886264895679605</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3506668068307939</v>
+        <v>0.3491468493235538</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.42912097757164</v>
+        <v>0.429201828580404</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>208</v>
@@ -5155,19 +5155,19 @@
         <v>215094</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>188150</v>
+        <v>190287</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>241981</v>
+        <v>241753</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.29178990819968</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2552375649681985</v>
+        <v>0.2581367371345965</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3282628953172571</v>
+        <v>0.327954421140495</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>430</v>
@@ -5176,19 +5176,19 @@
         <v>456317</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>425026</v>
+        <v>421926</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>492615</v>
+        <v>495329</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3360558748029721</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3130117733814774</v>
+        <v>0.3107286249992949</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3627877303832836</v>
+        <v>0.3647862475354309</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>379483</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>354348</v>
+        <v>354298</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>403045</v>
+        <v>403988</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6113735104320395</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5708790224283601</v>
+        <v>0.5707981714195961</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6493331931692061</v>
+        <v>0.6508531506764462</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>490</v>
@@ -5226,19 +5226,19 @@
         <v>522061</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>495174</v>
+        <v>495402</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>549005</v>
+        <v>546868</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.70821009180032</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6717371046827428</v>
+        <v>0.6720455788595051</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7447624350318013</v>
+        <v>0.7418632628654036</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>865</v>
@@ -5247,19 +5247,19 @@
         <v>901544</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>865246</v>
+        <v>862532</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>932835</v>
+        <v>935935</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6639441251970279</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6372122696167165</v>
+        <v>0.6352137524645687</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6869882266185228</v>
+        <v>0.6892713750007048</v>
       </c>
     </row>
     <row r="18">
@@ -5351,19 +5351,19 @@
         <v>71955</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>58799</v>
+        <v>56681</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>88238</v>
+        <v>86942</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2505875730181065</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2047718596391183</v>
+        <v>0.1973955701474995</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3072945909604968</v>
+        <v>0.3027803343543894</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>164</v>
@@ -5372,19 +5372,19 @@
         <v>172030</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>149974</v>
+        <v>149226</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>198159</v>
+        <v>198543</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1593411980299606</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1389119450525689</v>
+        <v>0.1382197484438158</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1835431410595301</v>
+        <v>0.1838991434867559</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>233</v>
@@ -5393,19 +5393,19 @@
         <v>243985</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>214675</v>
+        <v>214974</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>273236</v>
+        <v>271734</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1785111016452492</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.157066642297174</v>
+        <v>0.1572857281716351</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1999126956490561</v>
+        <v>0.1988143557130819</v>
       </c>
     </row>
     <row r="20">
@@ -5422,19 +5422,19 @@
         <v>215190</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>198907</v>
+        <v>200203</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>228346</v>
+        <v>230464</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7494124269818935</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6927054090395033</v>
+        <v>0.6972196656456106</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7952281403608817</v>
+        <v>0.8026044298525005</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>826</v>
@@ -5443,19 +5443,19 @@
         <v>907600</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>881471</v>
+        <v>881087</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>929656</v>
+        <v>930404</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8406588019700394</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8164568589404699</v>
+        <v>0.8161008565132443</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8610880549474311</v>
+        <v>0.8617802515561843</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1029</v>
@@ -5464,19 +5464,19 @@
         <v>1122790</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1093539</v>
+        <v>1095041</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1152100</v>
+        <v>1151801</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8214888983547508</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8000873043509433</v>
+        <v>0.8011856442869175</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.842933357702826</v>
+        <v>0.8427142718283647</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>1171026</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1116595</v>
+        <v>1112740</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1231118</v>
+        <v>1225620</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.346069940469465</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3299840062873319</v>
+        <v>0.3288447344843508</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3638285473200248</v>
+        <v>0.3622037620052934</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>893</v>
@@ -5589,19 +5589,19 @@
         <v>921979</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>872033</v>
+        <v>871690</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>974099</v>
+        <v>975636</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2614684016767285</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2473039649685615</v>
+        <v>0.2472067815248029</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2762495150329685</v>
+        <v>0.2766853583858882</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1983</v>
@@ -5610,19 +5610,19 @@
         <v>2093005</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2017301</v>
+        <v>2007009</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2171227</v>
+        <v>2166683</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3028976102720696</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2919417400083117</v>
+        <v>0.2904523036404058</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3142177166923744</v>
+        <v>0.3135601367415606</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>2212759</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2152667</v>
+        <v>2158165</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2267190</v>
+        <v>2271045</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.653930059530535</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.636171452679975</v>
+        <v>0.6377962379947063</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6700159937126681</v>
+        <v>0.6711552655156491</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2428</v>
@@ -5660,19 +5660,19 @@
         <v>2604178</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2552058</v>
+        <v>2550521</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2654124</v>
+        <v>2654467</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7385315983232714</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7237504849670312</v>
+        <v>0.7233146416141115</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7526960350314384</v>
+        <v>0.7527932184751968</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4560</v>
@@ -5681,19 +5681,19 @@
         <v>4816938</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4738716</v>
+        <v>4743260</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>4892642</v>
+        <v>4902934</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6971023897279304</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6857822833076256</v>
+        <v>0.6864398632584394</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7080582599916884</v>
+        <v>0.7095476963595942</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>94281</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>78392</v>
+        <v>76462</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>113232</v>
+        <v>113960</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.171226781938848</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1423717768579766</v>
+        <v>0.138865012127505</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2056446857809618</v>
+        <v>0.2069680864052437</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>105</v>
@@ -6048,19 +6048,19 @@
         <v>73164</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>60289</v>
+        <v>60020</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>86006</v>
+        <v>86556</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1498010781325269</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1234393336217636</v>
+        <v>0.1228874599545795</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1760944276666136</v>
+        <v>0.1772200009604445</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>199</v>
@@ -6069,19 +6069,19 @@
         <v>167445</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>147199</v>
+        <v>144490</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>192393</v>
+        <v>189936</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1611553157485135</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1416696654963613</v>
+        <v>0.1390624041301081</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1851661999732196</v>
+        <v>0.1828014090109559</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>456337</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>437386</v>
+        <v>436658</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>472226</v>
+        <v>474156</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8287732180611521</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7943553142190377</v>
+        <v>0.7930319135947567</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8576282231420234</v>
+        <v>0.8611349878724951</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>581</v>
@@ -6119,19 +6119,19 @@
         <v>415247</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>402405</v>
+        <v>401855</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>428122</v>
+        <v>428391</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8501989218674733</v>
+        <v>0.8501989218674731</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8239055723333865</v>
+        <v>0.8227799990395555</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8765606663782364</v>
+        <v>0.8771125400454201</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1041</v>
@@ -6140,19 +6140,19 @@
         <v>871584</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>846636</v>
+        <v>849093</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>891830</v>
+        <v>894539</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8388446842514865</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.814833800026781</v>
+        <v>0.8171985909890442</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8583303345036389</v>
+        <v>0.8609375958698919</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>94800</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>78688</v>
+        <v>78808</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>114610</v>
+        <v>113215</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1961861569283478</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1628441124636882</v>
+        <v>0.1630920433306655</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2371836447012695</v>
+        <v>0.2342968903335168</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>123</v>
@@ -6265,19 +6265,19 @@
         <v>92509</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>77014</v>
+        <v>78106</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>108789</v>
+        <v>108809</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2186239198074515</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1820043126535989</v>
+        <v>0.1845862695999857</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2570983278253459</v>
+        <v>0.2571445015029046</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>211</v>
@@ -6286,19 +6286,19 @@
         <v>187309</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>162357</v>
+        <v>163515</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>210604</v>
+        <v>211248</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2066614993867192</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1791318619720282</v>
+        <v>0.1804089664308446</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2323642386399101</v>
+        <v>0.2330737760245352</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>388412</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>368602</v>
+        <v>369997</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>404524</v>
+        <v>404404</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8038138430716522</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7628163552987307</v>
+        <v>0.765703109666483</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8371558875363118</v>
+        <v>0.8369079566693346</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>467</v>
@@ -6336,19 +6336,19 @@
         <v>330634</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>314354</v>
+        <v>314334</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>346129</v>
+        <v>345037</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7813760801925485</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.742901672174654</v>
+        <v>0.7428554984970953</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8179956873464012</v>
+        <v>0.8154137304000143</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>860</v>
@@ -6357,19 +6357,19 @@
         <v>719046</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>695751</v>
+        <v>695107</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>743998</v>
+        <v>742840</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7933385006132809</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7676357613600896</v>
+        <v>0.7669262239754646</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8208681380279719</v>
+        <v>0.8195910335691552</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>127614</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>107161</v>
+        <v>106076</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>148470</v>
+        <v>147544</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.2705918526056845</v>
+        <v>0.2705918526056844</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2272229365835992</v>
+        <v>0.2249211866667807</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.31481476426292</v>
+        <v>0.3128495886447862</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>43</v>
@@ -6482,19 +6482,19 @@
         <v>27334</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>20319</v>
+        <v>19727</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>36240</v>
+        <v>34998</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1457810358470659</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1083705541519043</v>
+        <v>0.1052147273289972</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1932822742185745</v>
+        <v>0.1866576475843667</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>164</v>
@@ -6503,19 +6503,19 @@
         <v>154948</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>134514</v>
+        <v>133453</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>176259</v>
+        <v>181158</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2350868158437849</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2040848162422703</v>
+        <v>0.2024749095066451</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2674206677893852</v>
+        <v>0.2748522885217063</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>343998</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>323142</v>
+        <v>324068</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>364451</v>
+        <v>365536</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7294081473943157</v>
+        <v>0.7294081473943156</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.68518523573708</v>
+        <v>0.6871504113552137</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7727770634164006</v>
+        <v>0.7750788133332193</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>246</v>
@@ -6553,19 +6553,19 @@
         <v>160163</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>151257</v>
+        <v>152499</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>167178</v>
+        <v>167770</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8542189641529342</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8067177257814255</v>
+        <v>0.8133423524156332</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8916294458480959</v>
+        <v>0.8947852726710027</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>613</v>
@@ -6574,19 +6574,19 @@
         <v>504161</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>482850</v>
+        <v>477951</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>524595</v>
+        <v>525656</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.764913184156215</v>
+        <v>0.7649131841562151</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7325793322106148</v>
+        <v>0.7251477114782945</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.79591518375773</v>
+        <v>0.7975250904933554</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>363291</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>330199</v>
+        <v>329779</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>398042</v>
+        <v>400010</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.320972799562118</v>
+        <v>0.3209727995621179</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2917359657073365</v>
+        <v>0.2913650336980392</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3516763294620143</v>
+        <v>0.3534148539699835</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>305</v>
@@ -6699,19 +6699,19 @@
         <v>231688</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>207886</v>
+        <v>207215</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>255481</v>
+        <v>253699</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.2692450329252407</v>
+        <v>0.2692450329252408</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2415850077095746</v>
+        <v>0.2408051799185284</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2968948628299012</v>
+        <v>0.2948241074603569</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>625</v>
@@ -6720,19 +6720,19 @@
         <v>594979</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>551791</v>
+        <v>555964</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>641351</v>
+        <v>642104</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2986312631130942</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2769546682296469</v>
+        <v>0.2790490272545754</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3219064650744839</v>
+        <v>0.3222844300436777</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>768552</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>733801</v>
+        <v>731833</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>801644</v>
+        <v>802064</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.679027200437882</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6483236705379858</v>
+        <v>0.6465851460300166</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7082640342926634</v>
+        <v>0.7086349663019608</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>924</v>
@@ -6770,19 +6770,19 @@
         <v>628821</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>605028</v>
+        <v>606810</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>652623</v>
+        <v>653294</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7307549670747592</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7031051371700987</v>
+        <v>0.7051758925396432</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7584149922904254</v>
+        <v>0.7591948200814719</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1722</v>
@@ -6791,19 +6791,19 @@
         <v>1397373</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1351001</v>
+        <v>1350248</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1440561</v>
+        <v>1436388</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7013687368869057</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6780935349255162</v>
+        <v>0.6777155699563224</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7230453317703532</v>
+        <v>0.7209509727454245</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>183585</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>158018</v>
+        <v>160186</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>208485</v>
+        <v>209862</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.3238501298741669</v>
+        <v>0.3238501298741668</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2787496938133999</v>
+        <v>0.2825743299469775</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3677747161485441</v>
+        <v>0.3702036713694769</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>247</v>
@@ -6916,19 +6916,19 @@
         <v>174095</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>154732</v>
+        <v>155344</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>196000</v>
+        <v>195624</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.2097164804320239</v>
+        <v>0.209716480432024</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1863914940902685</v>
+        <v>0.1871293271847327</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2361031524780661</v>
+        <v>0.235650790091775</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>412</v>
@@ -6937,19 +6937,19 @@
         <v>357680</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>327197</v>
+        <v>326504</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>391574</v>
+        <v>391534</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2560293394691876</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2342098362416222</v>
+        <v>0.2337138485848881</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2802912704653012</v>
+        <v>0.2802625562354043</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>383297</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>358397</v>
+        <v>357020</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>408864</v>
+        <v>406696</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.6761498701258332</v>
+        <v>0.6761498701258329</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6322252838514559</v>
+        <v>0.629796328630523</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7212503061866001</v>
+        <v>0.7174256700530226</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1042</v>
@@ -6987,19 +6987,19 @@
         <v>656050</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>634145</v>
+        <v>634521</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>675413</v>
+        <v>674801</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.790283519567976</v>
+        <v>0.7902835195679762</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7638968475219339</v>
+        <v>0.7643492099082249</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8136085059097315</v>
+        <v>0.8128706728152673</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1423</v>
@@ -7008,19 +7008,19 @@
         <v>1039346</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1005452</v>
+        <v>1005492</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1069829</v>
+        <v>1070522</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.7439706605308124</v>
+        <v>0.7439706605308123</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.719708729534699</v>
+        <v>0.7197374437645958</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7657901637583779</v>
+        <v>0.7662861514151115</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>26975</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>14641</v>
+        <v>13967</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>45728</v>
+        <v>46216</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.1142590443645859</v>
+        <v>0.114259044364586</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06201658230763438</v>
+        <v>0.05916052856136153</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1936933698044618</v>
+        <v>0.1957596583610151</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>108</v>
@@ -7133,19 +7133,19 @@
         <v>91571</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>73566</v>
+        <v>75042</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>112003</v>
+        <v>112630</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1084608748895738</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08713501366722799</v>
+        <v>0.08888222522834556</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1326602774586986</v>
+        <v>0.1334032026113781</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>121</v>
@@ -7154,19 +7154,19 @@
         <v>118546</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>95440</v>
+        <v>97584</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>146820</v>
+        <v>143659</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1097279138348346</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08834054362663718</v>
+        <v>0.09032473545945419</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1358985491727367</v>
+        <v>0.1329724227716281</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>209111</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>190358</v>
+        <v>189870</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>221445</v>
+        <v>222119</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.885740955635414</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8063066301955384</v>
+        <v>0.8042403416389849</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9379834176923659</v>
+        <v>0.9408394714386384</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1051</v>
@@ -7204,19 +7204,19 @@
         <v>752710</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>732278</v>
+        <v>731651</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>770715</v>
+        <v>769239</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8915391251104262</v>
+        <v>0.8915391251104263</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8673397225413015</v>
+        <v>0.8665967973886219</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9128649863327719</v>
+        <v>0.9111177747716548</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1149</v>
@@ -7225,19 +7225,19 @@
         <v>961821</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>933547</v>
+        <v>936708</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>984927</v>
+        <v>982783</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8902720861651656</v>
+        <v>0.8902720861651655</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8641014508272635</v>
+        <v>0.8670275772283719</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9116594563733627</v>
+        <v>0.9096752645405456</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>890545</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>828532</v>
+        <v>834546</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>948515</v>
+        <v>950739</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.258860309757089</v>
+        <v>0.2588603097570889</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2408346845926926</v>
+        <v>0.2425827789116432</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2757109156157955</v>
+        <v>0.2763574877132426</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>931</v>
@@ -7350,19 +7350,19 @@
         <v>690361</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>651258</v>
+        <v>648524</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>738540</v>
+        <v>731057</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1899736210668142</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1792130839496117</v>
+        <v>0.1784608564891048</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2032313780455477</v>
+        <v>0.2011722449687611</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1732</v>
@@ -7371,19 +7371,19 @@
         <v>1580906</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1513947</v>
+        <v>1518599</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1662259</v>
+        <v>1666814</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2234737123528245</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2140085589020456</v>
+        <v>0.214666137961023</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2349735691417016</v>
+        <v>0.235617538074142</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>2549707</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2491737</v>
+        <v>2489513</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2611720</v>
+        <v>2605706</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.741139690242911</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7242890843842044</v>
+        <v>0.7236425122867572</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7591653154073073</v>
+        <v>0.7574172210883565</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4311</v>
@@ -7421,19 +7421,19 @@
         <v>2943624</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2895445</v>
+        <v>2902928</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2982727</v>
+        <v>2985461</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8100263789331859</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7967686219544525</v>
+        <v>0.7988277550312389</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8207869160503884</v>
+        <v>0.8215391435108953</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6808</v>
@@ -7442,19 +7442,19 @@
         <v>5493331</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5411978</v>
+        <v>5407423</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5560290</v>
+        <v>5555638</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.7765262876471755</v>
+        <v>0.7765262876471757</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7650264308582984</v>
+        <v>0.7643824619258582</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7859914410979543</v>
+        <v>0.7853338620389767</v>
       </c>
     </row>
     <row r="24">
